--- a/data/trans_orig/P32E$amigos_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P32E$amigos_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4992</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1992</v>
+        <v>1598</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10203</v>
+        <v>9753</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1711729940947117</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06830062298430362</v>
+        <v>0.05479061726687317</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.349843083007284</v>
+        <v>0.3344104253728335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -775,19 +775,19 @@
         <v>4992</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1817</v>
+        <v>1668</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9931</v>
+        <v>10286</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1426595088747291</v>
+        <v>0.1426595088747292</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05192736821227694</v>
+        <v>0.04766585682170971</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2837888600113203</v>
+        <v>0.2939369873944036</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>12684</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8241</v>
+        <v>7736</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17738</v>
+        <v>18093</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4349344900784833</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2825784323030026</v>
+        <v>0.2652670925844082</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.60821476505866</v>
+        <v>0.6203776714604523</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -825,16 +825,16 @@
         <v>3663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1081</v>
+        <v>910</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>5829</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.6283941393448584</v>
+        <v>0.6283941393448583</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1853857623748553</v>
+        <v>0.1560559581930692</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -846,19 +846,19 @@
         <v>16347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10725</v>
+        <v>11020</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22433</v>
+        <v>21717</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4671604196370188</v>
+        <v>0.4671604196370189</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3064791765066469</v>
+        <v>0.3149257475247175</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6410821721402267</v>
+        <v>0.6206005316176948</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>7623</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3184</v>
+        <v>3415</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13200</v>
+        <v>13087</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2613812884948607</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1091760657598803</v>
+        <v>0.1171069012520852</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4526163892002024</v>
+        <v>0.4487285231256377</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2449</v>
+        <v>3020</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1050750783413339</v>
+        <v>0.1050750783413338</v>
       </c>
       <c r="O6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4202207301354287</v>
+        <v>0.518123275159026</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -917,19 +917,19 @@
         <v>8235</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3645</v>
+        <v>4056</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14023</v>
+        <v>14467</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2353442676635369</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1041689660112857</v>
+        <v>0.1159086855003198</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.400748999664459</v>
+        <v>0.4134336075094459</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>19208</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13249</v>
+        <v>13394</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23662</v>
+        <v>23627</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.658606399433069</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4543016751149289</v>
+        <v>0.4592519302479585</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8113530822633924</v>
+        <v>0.8101514186486407</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -967,19 +967,19 @@
         <v>2628</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>541</v>
+        <v>486</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5213</v>
+        <v>4932</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.4508286282185932</v>
+        <v>0.4508286282185931</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09289282396570338</v>
+        <v>0.08337918066617991</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8942921109452051</v>
+        <v>0.8461314388580237</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -988,19 +988,19 @@
         <v>21835</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15800</v>
+        <v>15842</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27200</v>
+        <v>26644</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6239953999591284</v>
+        <v>0.6239953999591286</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4515286534751924</v>
+        <v>0.4527206230841861</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.777305723827296</v>
+        <v>0.7614088611394898</v>
       </c>
     </row>
     <row r="8">
@@ -1068,19 +1068,19 @@
         <v>26644</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17331</v>
+        <v>15758</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>40411</v>
+        <v>39723</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2548644376269768</v>
+        <v>0.2548644376269767</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.165785266693254</v>
+        <v>0.1507325842414013</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3865521301464779</v>
+        <v>0.3799783892032856</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1089,19 +1089,19 @@
         <v>7136</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3254</v>
+        <v>3169</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13168</v>
+        <v>13028</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2374082326568616</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1082582240705842</v>
+        <v>0.1054136959383301</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4380964020365447</v>
+        <v>0.4334313911671452</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -1110,19 +1110,19 @@
         <v>33780</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23064</v>
+        <v>23335</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>48026</v>
+        <v>49388</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.250966185213538</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1713553685407204</v>
+        <v>0.1733678289096547</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.356810893526134</v>
+        <v>0.3669299483051796</v>
       </c>
     </row>
     <row r="10">
@@ -1139,19 +1139,19 @@
         <v>75673</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63342</v>
+        <v>63993</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>85718</v>
+        <v>84795</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7238574522127497</v>
+        <v>0.7238574522127498</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6059055488091261</v>
+        <v>0.6121317598507583</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8199484193752277</v>
+        <v>0.8111178233979608</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -1160,19 +1160,19 @@
         <v>20123</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14679</v>
+        <v>14290</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24481</v>
+        <v>24278</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.6694773887054641</v>
+        <v>0.6694773887054642</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4883714017328918</v>
+        <v>0.4754018836046788</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8144443979409763</v>
+        <v>0.8076960951729635</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -1181,19 +1181,19 @@
         <v>95796</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82904</v>
+        <v>82878</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>107413</v>
+        <v>107039</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7117135060243801</v>
+        <v>0.71171350602438</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6159328368198742</v>
+        <v>0.6157395398929332</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7980251772883467</v>
+        <v>0.795243226013685</v>
       </c>
     </row>
     <row r="11">
@@ -1210,19 +1210,19 @@
         <v>18125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>10251</v>
+        <v>10499</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30925</v>
+        <v>29284</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1733742534460832</v>
+        <v>0.1733742534460831</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09805811681390883</v>
+        <v>0.1004312689800821</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.295818190934373</v>
+        <v>0.2801163815110356</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1231,19 +1231,19 @@
         <v>2357</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6196</v>
+        <v>6991</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07840384244795355</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02139278097617344</v>
+        <v>0.02272735643220235</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2061395704709712</v>
+        <v>0.2325824362395296</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -1252,19 +1252,19 @@
         <v>20481</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12144</v>
+        <v>12321</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>33256</v>
+        <v>31624</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1521658273011944</v>
+        <v>0.1521658273011943</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09022692618755007</v>
+        <v>0.09153725250165204</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.247072519327585</v>
+        <v>0.2349501245056705</v>
       </c>
     </row>
     <row r="12">
@@ -1281,19 +1281,19 @@
         <v>50526</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>37796</v>
+        <v>37392</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>61973</v>
+        <v>62914</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4833113660274342</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3615458024648611</v>
+        <v>0.3576822164615521</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5928115006404391</v>
+        <v>0.6018113686081265</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -1302,19 +1302,19 @@
         <v>10201</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5918</v>
+        <v>5676</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16189</v>
+        <v>15372</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3393789183966517</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1969024557123378</v>
+        <v>0.1888445742097887</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5386039186996299</v>
+        <v>0.5113960267507498</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>58</v>
@@ -1323,19 +1323,19 @@
         <v>60727</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>47323</v>
+        <v>47858</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>74058</v>
+        <v>73201</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.4511689265734169</v>
+        <v>0.4511689265734168</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3515830864032606</v>
+        <v>0.355562415627964</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5502095468533703</v>
+        <v>0.5438472798283538</v>
       </c>
     </row>
     <row r="13">
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5443</v>
+        <v>5325</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01010016474810607</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05206212089155874</v>
+        <v>0.05093466886736508</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4929</v>
+        <v>5908</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03139034322895021</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1639983403963906</v>
+        <v>0.1965614090682345</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6524</v>
+        <v>7108</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0148546053488883</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04847158256900849</v>
+        <v>0.0528059761350168</v>
       </c>
     </row>
     <row r="14">
@@ -1427,19 +1427,19 @@
         <v>6511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1842</v>
+        <v>2253</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13021</v>
+        <v>12766</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.241880019892578</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0684371681448299</v>
+        <v>0.08370291163177246</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4837194010464246</v>
+        <v>0.4742259799963384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1448,19 +1448,19 @@
         <v>7646</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2983</v>
+        <v>3052</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13857</v>
+        <v>14544</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2772629874993609</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1081768116227608</v>
+        <v>0.1106787844298226</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5025098672574305</v>
+        <v>0.5274200968532181</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -1469,19 +1469,19 @@
         <v>14157</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7326</v>
+        <v>7640</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22464</v>
+        <v>23899</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2597847462784414</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1344381754400318</v>
+        <v>0.1401953915100707</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.412220254458281</v>
+        <v>0.4385509889723276</v>
       </c>
     </row>
     <row r="15">
@@ -1498,19 +1498,19 @@
         <v>17728</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12306</v>
+        <v>12132</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>22456</v>
+        <v>22139</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6585609946473545</v>
+        <v>0.6585609946473544</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4571457521129158</v>
+        <v>0.4506944745608386</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8342019903842134</v>
+        <v>0.8224330610696473</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>20</v>
@@ -1519,19 +1519,19 @@
         <v>21805</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>15221</v>
+        <v>15330</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>25513</v>
+        <v>25276</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.7907218195643697</v>
+        <v>0.7907218195643698</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.5519553105813144</v>
+        <v>0.5559320499125605</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9252041654612306</v>
+        <v>0.9166085967368302</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>36</v>
@@ -1540,19 +1540,19 @@
         <v>39533</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>31328</v>
+        <v>31836</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>44924</v>
+        <v>46221</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.7254379009421091</v>
+        <v>0.7254379009421092</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.5748793388507176</v>
+        <v>0.5841913984068938</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8243728487400349</v>
+        <v>0.8481741712119399</v>
       </c>
     </row>
     <row r="16">
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7245</v>
+        <v>7474</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09013388143836758</v>
+        <v>0.09013388143836756</v>
       </c>
       <c r="H16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2691321557338982</v>
+        <v>0.2776415604550272</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1590,19 +1590,19 @@
         <v>7121</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2678</v>
+        <v>2382</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13509</v>
+        <v>13245</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2582201272465796</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09711888359677739</v>
+        <v>0.08637637741460381</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4898954773970941</v>
+        <v>0.4803100844673014</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1611,19 +1611,19 @@
         <v>9547</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3868</v>
+        <v>3940</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>18005</v>
+        <v>17929</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1751900099651928</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07098471668096387</v>
+        <v>0.0723032247549155</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.330389035658826</v>
+        <v>0.3289968737624132</v>
       </c>
     </row>
     <row r="17">
@@ -1640,19 +1640,19 @@
         <v>16494</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11262</v>
+        <v>10774</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21447</v>
+        <v>21272</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6127267216797976</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4183719771635026</v>
+        <v>0.400236264678789</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7967400602807291</v>
+        <v>0.7902239300082766</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1661,19 +1661,19 @@
         <v>9876</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4851</v>
+        <v>4615</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15834</v>
+        <v>16088</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3581346955892474</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1759244339339598</v>
+        <v>0.1673670242455136</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5741844451948658</v>
+        <v>0.5833893565014524</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -1682,19 +1682,19 @@
         <v>26370</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17878</v>
+        <v>18285</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>34519</v>
+        <v>35108</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.483896358499631</v>
+        <v>0.4838963584996312</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3280612548032422</v>
+        <v>0.3355275712948275</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6334279777064244</v>
+        <v>0.6442492902763987</v>
       </c>
     </row>
     <row r="18">
@@ -1714,16 +1714,16 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6277</v>
+        <v>6619</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.07566740079240557</v>
+        <v>0.07566740079240555</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2331897475936913</v>
+        <v>0.2458977950350091</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>3</v>
@@ -1732,19 +1732,19 @@
         <v>4120</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>704</v>
+        <v>1059</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10086</v>
+        <v>10801</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1494203724569483</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02552730740069102</v>
+        <v>0.03838710853254902</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3657688809191607</v>
+        <v>0.3916886067349259</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -1753,19 +1753,19 @@
         <v>6157</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>2212</v>
+        <v>2108</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12857</v>
+        <v>14187</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1129883737665557</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04059086000047252</v>
+        <v>0.03868170005342871</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2359375117737683</v>
+        <v>0.260335260375399</v>
       </c>
     </row>
     <row r="19">
@@ -1786,19 +1786,19 @@
         <v>38147</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25695</v>
+        <v>25873</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>54284</v>
+        <v>53784</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.237492766193493</v>
+        <v>0.2374927661934929</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1599724414499584</v>
+        <v>0.1610758358712963</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3379590652157114</v>
+        <v>0.3348468961811845</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1807,19 +1807,19 @@
         <v>14782</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8432</v>
+        <v>8546</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23364</v>
+        <v>23341</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2329199498791099</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1328688813956432</v>
+        <v>0.1346605519804679</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3681562955170439</v>
+        <v>0.3677833729835317</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>41</v>
@@ -1828,19 +1828,19 @@
         <v>52929</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38545</v>
+        <v>38634</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71027</v>
+        <v>69486</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2361977134100839</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1720085691737768</v>
+        <v>0.1724048061507144</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3169621310076008</v>
+        <v>0.3100828412200599</v>
       </c>
     </row>
     <row r="20">
@@ -1857,19 +1857,19 @@
         <v>106085</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>91778</v>
+        <v>91608</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>118886</v>
+        <v>118051</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6604555267718886</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.571382371521167</v>
+        <v>0.5703275546439913</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7401482185790873</v>
+        <v>0.7349496468120145</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -1878,19 +1878,19 @@
         <v>45591</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>37592</v>
+        <v>37217</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51911</v>
+        <v>52289</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7183866538100313</v>
+        <v>0.7183866538100314</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5923398200468455</v>
+        <v>0.5864393870647535</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8179782361125953</v>
+        <v>0.8239238298352861</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>137</v>
@@ -1899,19 +1899,19 @@
         <v>151676</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>136380</v>
+        <v>136278</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>166439</v>
+        <v>165579</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6768620172492771</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6086043350554249</v>
+        <v>0.6081479807003711</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7427450047831523</v>
+        <v>0.7389069913087617</v>
       </c>
     </row>
     <row r="21">
@@ -1928,19 +1928,19 @@
         <v>28174</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18553</v>
+        <v>18613</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42889</v>
+        <v>41545</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1754032425013299</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1155070795526564</v>
+        <v>0.1158780129923318</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2670167926927835</v>
+        <v>0.2586477605230064</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -1949,19 +1949,19 @@
         <v>10090</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4446</v>
+        <v>4911</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18640</v>
+        <v>18738</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1589867832199665</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07006269919176589</v>
+        <v>0.07737812621758687</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2937188430608696</v>
+        <v>0.2952664577604845</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>31</v>
@@ -1970,19 +1970,19 @@
         <v>38264</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>25265</v>
+        <v>25398</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>51911</v>
+        <v>52462</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1707539892131142</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1127454755734291</v>
+        <v>0.1133411363644267</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2316555787980538</v>
+        <v>0.2341126130293383</v>
       </c>
     </row>
     <row r="22">
@@ -1999,19 +1999,19 @@
         <v>86227</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>71016</v>
+        <v>71538</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>100506</v>
+        <v>100710</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5368278326692187</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.442128082640812</v>
+        <v>0.4453752389206246</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6257233209848004</v>
+        <v>0.6269946092234793</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>27</v>
@@ -2020,19 +2020,19 @@
         <v>22705</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15264</v>
+        <v>15277</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30368</v>
+        <v>31398</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3577652267864776</v>
+        <v>0.3577652267864775</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2405189449492317</v>
+        <v>0.2407208646571181</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4785169269913017</v>
+        <v>0.494737161357571</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>110</v>
@@ -2041,19 +2041,19 @@
         <v>108932</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>91465</v>
+        <v>91932</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>124939</v>
+        <v>125838</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4861160808274622</v>
+        <v>0.486116080827462</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4081666392038807</v>
+        <v>0.410250641163488</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5575460846944389</v>
+        <v>0.5615588324712776</v>
       </c>
     </row>
     <row r="23">
@@ -2070,19 +2070,19 @@
         <v>3093</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7663</v>
+        <v>8974</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01925467814425024</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0</v>
+        <v>0.005805697287197836</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04770591386436569</v>
+        <v>0.05586684892830913</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -2091,19 +2091,19 @@
         <v>5064</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1392</v>
+        <v>1092</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11465</v>
+        <v>11169</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0797931860290212</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02192943123848619</v>
+        <v>0.01721082860990463</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.180663455464306</v>
+        <v>0.1759893133532038</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -2112,19 +2112,19 @@
         <v>8157</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3459</v>
+        <v>3138</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>15976</v>
+        <v>16097</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03639959666918854</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01543741579602521</v>
+        <v>0.01400434052854127</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07129505126141138</v>
+        <v>0.07183202249637567</v>
       </c>
     </row>
     <row r="24">
